--- a/outputs-r202/test-g__Olsenella.xlsx
+++ b/outputs-r202/test-g__Olsenella.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Row</t>
   </si>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,14 +113,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,376 +155,376 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="C2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="D2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="E2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="F2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="G2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="H2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="I2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="J2">
-        <v>2.6366212566860084e-11</v>
+        <v>8.7079666343844676e-06</v>
       </c>
       <c r="K2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="L2">
-        <v>0.99999999997338962</v>
+        <v>0.99999129203312132</v>
       </c>
       <c r="M2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="N2">
-        <v>2.220446049245726e-14</v>
+        <v>2.2204445619367224e-14</v>
       </c>
       <c r="O2">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="G3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="J3">
-        <v>2.5042574051693416e-06</v>
+        <v>4.4984678844632789e-06</v>
       </c>
       <c r="K3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="L3">
-        <v>0.99999749574235053</v>
+        <v>0.99999550153187133</v>
       </c>
       <c r="M3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="N3">
-        <v>2.2204456215173397e-14</v>
+        <v>2.2204452809061316e-14</v>
       </c>
       <c r="O3">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="J4">
-        <v>3.8430082702970052e-07</v>
+        <v>8.8612315033863336e-08</v>
       </c>
       <c r="K4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="L4">
-        <v>0.9999996156989287</v>
+        <v>0.99999991138744071</v>
       </c>
       <c r="M4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="N4">
-        <v>2.2204459836103606e-14</v>
+        <v>2.2204460341149356e-14</v>
       </c>
       <c r="O4">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.6067272854635252e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="C5">
-        <v>2.6067272854635252e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="D5">
-        <v>2.6067272854635252e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="E5">
-        <v>2.6067272854635242e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="F5">
-        <v>0.89021426464038045</v>
+        <v>0.96847150356323852</v>
       </c>
       <c r="G5">
-        <v>2.6067272854635252e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="H5">
-        <v>2.6067272854635233e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="I5">
-        <v>2.6067272854635233e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="J5">
-        <v>0.10978573535933263</v>
+        <v>0.031528496436517388</v>
       </c>
       <c r="K5">
-        <v>2.6067272854634946e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="L5">
-        <v>2.6067272854634946e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="M5">
-        <v>2.6067272854634946e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="N5">
-        <v>2.6067272854634946e-14</v>
+        <v>2.2200580416005211e-14</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="I6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="J6">
-        <v>7.3162221582513516e-05</v>
+        <v>2.6166808059765357e-05</v>
       </c>
       <c r="K6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="L6">
-        <v>0.99992683777817315</v>
+        <v>0.99997383319169608</v>
       </c>
       <c r="M6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204335555688526e-14</v>
+        <v>2.2204415802102099e-14</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="C7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="D7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="E7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="F7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="G7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="H7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="I7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="J7">
-        <v>1.840359827020375e-06</v>
+        <v>1.573194301554998e-08</v>
       </c>
       <c r="K7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="L7">
-        <v>0.99999815963992877</v>
+        <v>0.99999998426781267</v>
       </c>
       <c r="M7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="N7">
-        <v>2.2204457349119508e-14</v>
+        <v>2.2204460465631575e-14</v>
       </c>
       <c r="O7">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="C8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="D8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="E8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="F8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="G8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="H8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="I8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="J8">
-        <v>0.00047336304444676514</v>
+        <v>9.973773789606616e-06</v>
       </c>
       <c r="K8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="L8">
-        <v>0.99952663695530897</v>
+        <v>0.99999002622596611</v>
       </c>
       <c r="M8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="N8">
-        <v>2.2203653095694184e-14</v>
+        <v>2.2204443457442391e-14</v>
       </c>
       <c r="O8">
         <v>11</v>
